--- a/TestData/TMTI0054719_VerificationOfNewFieldAssociatedOpportunityAvailabiltyAndFunctionalityOnCFOpportunityAndEngagementPage.xlsx
+++ b/TestData/TMTI0054719_VerificationOfNewFieldAssociatedOpportunityAvailabiltyAndFunctionalityOnCFOpportunityAndEngagementPage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9017553-461D-4CB6-8FE0-E85F4F7A6B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA40B293-F5AC-4C3F-AE4D-4ABFBBEC1485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D381DC3E-0C7A-48CF-8E3B-36CB765DCADA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D381DC3E-0C7A-48CF-8E3B-36CB765DCADA}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Client</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>9999</t>
+  </si>
+  <si>
+    <t>Engagements</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DDA40C-CB43-498D-A2ED-A0851564593B}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
@@ -858,13 +861,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1988A2C0-E26B-4053-9887-74900EAFFAF5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -874,6 +880,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +999,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1032,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
